--- a/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F891E01A-6F4C-411B-91D2-99AEB94DA7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73081D23-F7AF-463A-A4AC-C733D011A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{91F7D66C-2984-42C4-B8CB-8191259C9015}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{85FC224F-E8D4-49CB-B9F6-A9A8361B0CB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,82 +67,148 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,68%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,6%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -160,72 +226,6 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
     <t>99,73%</t>
   </si>
   <si>
@@ -277,28 +277,64 @@
     <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -313,42 +349,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,82%</t>
   </si>
   <si>
@@ -370,6 +370,48 @@
     <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
     <t>99,42%</t>
   </si>
   <si>
@@ -394,34 +436,28 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -446,42 +482,6 @@
   </si>
   <si>
     <t>1,11%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -915,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB0595-E07C-445F-A41F-425FA4B1603E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB8AFDE-E2D0-438D-A4DC-2F89C85B29A2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1033,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>211463</v>
+        <v>24919</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1048,31 +1048,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194509</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>632</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>405972</v>
+        <v>47643</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1081,52 +1081,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>679</v>
+        <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
-        <v>654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
       <c r="N5" s="7">
-        <v>1333</v>
+        <v>525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1135,54 +1135,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1197,10 +1197,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>173</v>
@@ -1209,10 +1209,10 @@
         <v>115282</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1224,10 +1224,10 @@
         <v>242915</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1236,7 +1236,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1260,13 +1260,13 @@
         <v>720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1275,13 +1275,13 @@
         <v>720</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,13 +1296,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1311,13 +1311,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1326,117 +1326,117 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>211463</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I10" s="7">
-        <v>209315</v>
+        <v>194509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>632</v>
       </c>
       <c r="N10" s="7">
-        <v>417139</v>
+        <v>405972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,99 +1445,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>24919</v>
+        <v>148938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>460</v>
       </c>
       <c r="N13" s="7">
-        <v>47643</v>
+        <v>286755</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1546,22 +1546,22 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>525</v>
+        <v>719</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1570,28 +1570,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>525</v>
+        <v>719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,123 +1600,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>148938</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>286755</v>
+        <v>417139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1725,28 +1725,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,49 +1755,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,7 +1856,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -1883,7 +1883,7 @@
         <v>73</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>74</v>
@@ -1916,13 +1916,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1931,13 +1931,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1946,13 +1946,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8DBFFF-110A-4397-A0BE-17B81FDBE364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F22E2-8416-44A3-A87C-836080F604C7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2091,10 +2091,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
@@ -2103,43 +2103,43 @@
         <v>79</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2163,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,54 +2193,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2255,10 +2255,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2270,10 +2270,10 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>340</v>
@@ -2285,16 +2285,16 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2354,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2369,13 +2369,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2384,72 +2384,72 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,108 +2503,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N13" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2613,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,108 +2658,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I16" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N16" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2768,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2783,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>102</v>
@@ -2813,49 +2813,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
         <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H19" s="7">
         <v>1018</v>
@@ -2893,7 +2893,7 @@
         <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M19" s="7">
         <v>2084</v>
@@ -2908,13 +2908,13 @@
         <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>106</v>
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>107</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>108</v>
@@ -2974,13 +2974,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2989,13 +2989,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3004,13 +3004,13 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209CDE5C-364D-485E-B2BA-A438E33DF434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3917F-E8D4-4CC3-949F-5557DEED822D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,10 +3149,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>13</v>
@@ -3161,43 +3161,43 @@
         <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <v>24</v>
       </c>
-      <c r="H4" s="7">
-        <v>333</v>
-      </c>
       <c r="I4" s="7">
-        <v>206643</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431002</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3206,43 +3206,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,54 +3251,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7">
-        <v>334</v>
-      </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3310,10 +3310,10 @@
         <v>121414</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3328,10 +3328,10 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
         <v>327</v>
@@ -3340,10 +3340,10 @@
         <v>232594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3352,7 +3352,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3361,13 +3361,13 @@
         <v>1088</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3391,13 +3391,13 @@
         <v>1088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3412,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3427,13 +3427,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3442,63 +3442,63 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="I10" s="7">
-        <v>206199</v>
+        <v>206643</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="N10" s="7">
-        <v>411935</v>
+        <v>431002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3507,7 +3507,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3516,43 +3516,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1221</v>
+        <v>604</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1221</v>
+        <v>604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,153 +3561,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>506</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322082</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>588</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,96 +3716,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166085</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>279</v>
+      </c>
+      <c r="I16" s="7">
+        <v>206199</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>259</v>
-      </c>
-      <c r="I16" s="7">
-        <v>155997</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="N16" s="7">
-        <v>322082</v>
+        <v>411935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>143</v>
@@ -3817,49 +3817,49 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1221</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>146</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>588</v>
+        <v>1221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>147</v>
@@ -3871,49 +3871,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
@@ -3984,7 +3984,7 @@
         <v>155</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>156</v>
@@ -4032,13 +4032,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4047,13 +4047,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4062,13 +4062,13 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73081D23-F7AF-463A-A4AC-C733D011A1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8365710-5F56-46F7-965F-60CB5C8E2374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{85FC224F-E8D4-49CB-B9F6-A9A8361B0CB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ADAE387-E851-4DFA-A3BA-524F6E4F07B8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,13 +70,37 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>87,18%</t>
+    <t>87,15%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,100 +115,97 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
     <t>99,01%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
     <t>98,31%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>98,86%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>97,13%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -193,43 +214,52 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -238,292 +268,247 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
     <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
   </si>
 </sst>
 </file>
@@ -534,7 +519,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -630,39 +615,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -714,7 +699,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -825,13 +810,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -840,6 +818,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -904,19 +889,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB8AFDE-E2D0-438D-A4DC-2F89C85B29A2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97A83B3-9842-4401-AF8D-972D00A167C0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1033,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>24919</v>
+        <v>525</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1048,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -1063,19 +1068,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>47643</v>
+        <v>525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1084,10 +1089,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>525</v>
+        <v>24919</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1099,13 +1104,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
@@ -1114,19 +1119,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>525</v>
+        <v>47643</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1141,13 +1146,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1156,13 +1161,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1171,13 +1176,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,49 +1193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127633</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115282</v>
+        <v>720</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242915</v>
+        <v>720</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1239,49 +1244,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127633</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>720</v>
+        <v>115282</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>720</v>
+        <v>242915</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,13 +1301,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1311,13 +1316,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1326,13 +1331,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,49 +1348,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>211463</v>
+        <v>679</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194509</v>
+        <v>654</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>405972</v>
+        <v>1333</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1394,49 +1399,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>679</v>
+        <v>211463</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>654</v>
+        <v>194509</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1333</v>
+        <v>405972</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1451,13 +1456,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1466,13 +1471,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1481,66 +1486,66 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>148938</v>
+        <v>719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>286755</v>
+        <v>719</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,49 +1554,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>719</v>
+        <v>148938</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>719</v>
+        <v>286755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1611,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1621,13 +1626,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1636,66 +1641,66 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417139</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,49 +1709,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1766,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1776,13 +1781,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1791,13 +1796,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,49 +1813,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1083</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>720777</v>
+        <v>1923</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>679647</v>
+        <v>1374</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
-        <v>2099</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>1400425</v>
+        <v>3296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,49 +1864,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="D20" s="7">
-        <v>1923</v>
+        <v>720777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1374</v>
+        <v>679647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2099</v>
       </c>
       <c r="N20" s="7">
-        <v>3296</v>
+        <v>1400425</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1921,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1931,13 +1936,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1946,13 +1951,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1973,8 +1983,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0F22E2-8416-44A3-A87C-836080F604C7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9F6D58-4559-4ED3-9885-6D327DC520AB}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1990,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2091,49 +2101,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,49 +2152,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2209,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2214,13 +2224,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2229,13 +2239,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,49 +2256,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>127643</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>241661</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,49 +2307,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>127643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>241661</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2364,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2369,13 +2379,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2384,13 +2394,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,49 +2411,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,49 +2462,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,16 +2516,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2524,13 +2534,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2539,66 +2549,66 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,49 +2617,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2674,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2679,13 +2689,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2694,66 +2704,66 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>210300</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417382</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,49 +2772,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>210300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417382</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,13 +2829,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2834,13 +2844,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2849,13 +2859,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,49 +2876,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1066</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>748142</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>706928</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>2084</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1455070</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,49 +2927,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1066</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>748142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>706928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2084</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1455070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2984,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2989,13 +2999,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3004,13 +3014,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3031,8 +3046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3917F-E8D4-4CC3-949F-5557DEED822D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B1991-E5EC-4AC6-A888-A0B4E4B7DD12}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3048,7 +3063,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3149,49 +3164,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,49 +3215,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>22527</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,13 +3272,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3272,13 +3287,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3287,13 +3302,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,49 +3319,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>121414</v>
+        <v>1088</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>163</v>
-      </c>
-      <c r="I7" s="7">
-        <v>111180</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1088</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>327</v>
-      </c>
-      <c r="N7" s="7">
-        <v>232594</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,49 +3370,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>1088</v>
+        <v>121414</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>163</v>
+      </c>
+      <c r="I8" s="7">
+        <v>111180</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <v>327</v>
+      </c>
+      <c r="N8" s="7">
+        <v>232594</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1088</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,13 +3427,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3427,13 +3442,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3442,13 +3457,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>604</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7">
-        <v>333</v>
-      </c>
-      <c r="I10" s="7">
-        <v>206643</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>604</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>665</v>
-      </c>
-      <c r="N10" s="7">
-        <v>431002</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,49 +3525,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="I11" s="7">
-        <v>604</v>
+        <v>206643</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>604</v>
+        <v>431002</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3582,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3582,13 +3597,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3597,66 +3612,66 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>166085</v>
+        <v>588</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>322082</v>
+        <v>588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +3680,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>588</v>
+        <v>166085</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>588</v>
+        <v>322082</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3737,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3737,13 +3752,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3752,66 +3767,66 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>206199</v>
+        <v>1221</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>569</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>411935</v>
+        <v>1221</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +3835,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="7">
+        <v>279</v>
+      </c>
+      <c r="I17" s="7">
+        <v>206199</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1221</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>569</v>
       </c>
       <c r="N17" s="7">
-        <v>1221</v>
+        <v>411935</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3892,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3892,13 +3907,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3907,13 +3922,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,49 +3939,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1063</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>743168</v>
+        <v>1676</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1824</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3500</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I19" s="7">
-        <v>702547</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1445715</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,49 +3990,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="7">
-        <v>1676</v>
+        <v>743168</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1058</v>
+      </c>
+      <c r="I20" s="7">
+        <v>702547</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2121</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1445715</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1824</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3500</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4047,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4047,13 +4062,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4062,13 +4077,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8365710-5F56-46F7-965F-60CB5C8E2374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF39459-F7DC-4F57-BDB2-729354CC57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6ADAE387-E851-4DFA-A3BA-524F6E4F07B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9D69A38-28A1-46CF-9153-F9E3ED7A1BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,85%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>5,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>97,94%</t>
   </si>
   <si>
-    <t>87,15%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,10 +115,10 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -127,13 +127,13 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>3,27%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>99,01%</t>
@@ -142,28 +142,28 @@
     <t>99,38%</t>
   </si>
   <si>
-    <t>96,73%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -172,25 +172,25 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>98,31%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -199,13 +199,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,13%</t>
+    <t>96,75%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -214,7 +214,7 @@
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,61%</t>
+    <t>98,75%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -244,271 +244,265 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>97,97%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,82%</t>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,18%</t>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
     <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D97A83B3-9842-4401-AF8D-972D00A167C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C906D61-6062-4430-BD81-02B87939AD17}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9F6D58-4559-4ED3-9885-6D327DC520AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B8DE04-C5CA-4355-AE7B-8F000C0568BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -2331,7 +2325,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2346,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>23</v>
@@ -2423,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2438,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2465,13 +2459,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -2486,7 +2480,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2516,7 +2510,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -2578,7 +2572,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2593,7 +2587,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2608,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2620,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -2641,7 +2635,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2656,7 +2650,7 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -2733,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2763,7 +2757,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2775,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -2811,7 +2805,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>23</v>
@@ -2888,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2903,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2918,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2930,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -2951,7 +2945,7 @@
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
@@ -2966,7 +2960,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -3046,7 +3040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B1991-E5EC-4AC6-A888-A0B4E4B7DD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9117A880-4CC1-434E-8503-22C874C90A5E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3176,7 +3170,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3191,7 +3185,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3224,7 +3218,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3239,7 +3233,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3325,13 +3319,13 @@
         <v>1088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3346,7 +3340,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3355,13 +3349,13 @@
         <v>1088</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,10 +3370,10 @@
         <v>121414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3394,7 +3388,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -3406,10 +3400,10 @@
         <v>232594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3486,7 +3480,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3495,13 +3489,13 @@
         <v>604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3510,13 +3504,13 @@
         <v>604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3528,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
@@ -3546,10 +3540,10 @@
         <v>206643</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3561,10 +3555,10 @@
         <v>431002</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3665,13 +3659,13 @@
         <v>588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,10 +3680,10 @@
         <v>166085</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -3704,7 +3698,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -3716,10 +3710,10 @@
         <v>322082</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3796,7 +3790,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3805,13 +3799,13 @@
         <v>1221</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3826,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3838,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -3856,10 +3850,10 @@
         <v>206199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
@@ -3874,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3945,13 +3939,13 @@
         <v>1676</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3960,10 +3954,10 @@
         <v>1824</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>66</v>
@@ -3975,13 +3969,13 @@
         <v>3500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4011,7 @@
         <v>73</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="M20" s="7">
         <v>2121</v>
@@ -4026,13 +4020,13 @@
         <v>1445715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1018-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF39459-F7DC-4F57-BDB2-729354CC57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2167B2-1739-4F55-9675-E78D7201ED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9D69A38-28A1-46CF-9153-F9E3ED7A1BAC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{33961ADB-93F8-4DE4-81E4-6F42D1AE5958}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
   <si>
     <t>Menores según si padecen problemas de riñón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,442 +67,403 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen problemas de riñón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
 </sst>
 </file>
@@ -914,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C906D61-6062-4430-BD81-02B87939AD17}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD350EA6-D07C-4ADE-B100-0FB26A09851E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1035,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>525</v>
+        <v>720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1047,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>525</v>
+        <v>1244</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1083,10 +1044,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>24919</v>
+        <v>138006</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1098,25 +1059,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152552</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>47643</v>
+        <v>290559</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1134,96 +1095,96 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1333</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>720</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -1238,46 +1199,46 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>127633</v>
+        <v>194509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>321</v>
+      </c>
+      <c r="I8" s="7">
+        <v>211463</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>632</v>
+      </c>
+      <c r="N8" s="7">
+        <v>405972</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>173</v>
-      </c>
-      <c r="I8" s="7">
-        <v>115282</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="7">
-        <v>366</v>
-      </c>
-      <c r="N8" s="7">
-        <v>242915</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -1289,96 +1250,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>654</v>
+        <v>719</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>719</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1333</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
@@ -1393,43 +1354,43 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>211463</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>231</v>
+      </c>
+      <c r="I11" s="7">
+        <v>148938</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>311</v>
-      </c>
-      <c r="I11" s="7">
-        <v>194509</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>460</v>
+      </c>
+      <c r="N11" s="7">
+        <v>286755</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="7">
-        <v>632</v>
-      </c>
-      <c r="N11" s="7">
-        <v>405972</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>47</v>
@@ -1444,49 +1405,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,49 +1458,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,49 +1509,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>148938</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>286755</v>
+        <v>417139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,102 +1560,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1374</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1923</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3296</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,49 +1664,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>679647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1083</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>720777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
-        <v>580</v>
+        <v>2099</v>
       </c>
       <c r="N17" s="7">
-        <v>417139</v>
+        <v>1400425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,217 +1715,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1923</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1374</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3296</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="A19" t="s">
         <v>69</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1083</v>
-      </c>
-      <c r="D20" s="7">
-        <v>720777</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679647</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1400425</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1977,8 +1782,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B8DE04-C5CA-4355-AE7B-8F000C0568BF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA52543-BA1F-43A2-AC0D-127E6562C73C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1994,7 +1799,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2104,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2119,10 +1924,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2134,10 +1939,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,49 +1951,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,54 +2002,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2259,10 +2064,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2274,10 +2079,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2289,10 +2094,10 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,49 +2106,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,54 +2157,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2414,10 +2219,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2429,10 +2234,10 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2444,10 +2249,10 @@
         <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,49 +2261,49 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,49 +2312,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,40 +2374,40 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,49 +2416,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,54 +2467,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,10 +2529,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2739,10 +2544,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2754,10 +2559,10 @@
         <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,49 +2571,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D17" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I17" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N17" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,217 +2622,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D20" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I20" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3040,8 +2689,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9117A880-4CC1-434E-8503-22C874C90A5E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC343906-AFBF-4DA5-9B86-EFC282628BC0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3057,7 +2706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3167,40 +2816,40 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,49 +2858,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>146988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N5" s="7">
-        <v>48101</v>
+        <v>280695</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,54 +2909,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3316,16 +2965,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1088</v>
+        <v>604</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3337,25 +2986,25 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>1088</v>
+        <v>604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,46 +3013,46 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="D8" s="7">
-        <v>121414</v>
+        <v>206643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>327</v>
+        <v>665</v>
       </c>
       <c r="N8" s="7">
-        <v>232594</v>
+        <v>431002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3415,54 +3064,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3477,40 +3126,40 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,46 +3168,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>206643</v>
+        <v>166085</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>665</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>431002</v>
+        <v>322082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3570,49 +3219,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,19 +3272,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>588</v>
+        <v>1221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3647,25 +3296,25 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>588</v>
+        <v>1221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,46 +3323,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>166085</v>
+        <v>206199</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="N14" s="7">
-        <v>322082</v>
+        <v>411935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3725,102 +3374,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1221</v>
+        <v>1676</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>1221</v>
+        <v>3500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,49 +3478,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1058</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>702547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
-        <v>279</v>
+        <v>1063</v>
       </c>
       <c r="I17" s="7">
-        <v>206199</v>
+        <v>743168</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>569</v>
+        <v>2121</v>
       </c>
       <c r="N17" s="7">
-        <v>411935</v>
+        <v>1445715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,217 +3529,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1676</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1824</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3500</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="7">
-        <v>743168</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I20" s="7">
-        <v>702547</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1445715</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
+      <c r="A19" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
